--- a/excel file/Book1.xlsx
+++ b/excel file/Book1.xlsx
@@ -65,9 +65,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -370,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -398,6 +399,12 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>A5*12</f>
+        <v>2400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
